--- a/Ex3/RES/SCC.xlsx
+++ b/Ex3/RES/SCC.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7d8389596672f02/Desktop/לימודים/כפל תואר/עצמים/EX3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\OOP_2020\Ex3\RES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC1048CB619F65CA5BDE58EA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31D585A2-369F-4ADC-A63F-09C60185A9B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091CE31-3A15-4532-9BBE-C5E9C049DFBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PYTHON</t>
   </si>
@@ -52,6 +61,9 @@
   </si>
   <si>
     <t>G_100_800_1</t>
+  </si>
+  <si>
+    <t>nx</t>
   </si>
 </sst>
 </file>
@@ -93,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -389,7 +402,7 @@
     <col min="1" max="1" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -399,8 +412,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -410,8 +426,15 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <f>E2*10^9</f>
+        <v>6500.00000002037</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.5000000000203699E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -421,8 +444,15 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="0">E3*10^9</f>
+        <v>4100.0000003954501</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.1000000003954497E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -432,8 +462,15 @@
       <c r="C4">
         <v>9973200</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>11800.000000228199</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.18000000002282E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -443,8 +480,15 @@
       <c r="C5">
         <v>143616000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>10800.000000088499</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.08000000000885E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -454,8 +498,15 @@
       <c r="C6">
         <v>846263400</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>10900.0000003689</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.09000000003689E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -464,6 +515,13 @@
       </c>
       <c r="C7">
         <v>2071714400</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>11299.999999714299</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.1299999999714299E-5</v>
       </c>
     </row>
   </sheetData>
